--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2302,28 +2302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.4384181971483</v>
+        <v>785.4200197064446</v>
       </c>
       <c r="AB2" t="n">
-        <v>980.2626508096375</v>
+        <v>1074.646321248133</v>
       </c>
       <c r="AC2" t="n">
-        <v>886.7077592236362</v>
+        <v>972.0835846237953</v>
       </c>
       <c r="AD2" t="n">
-        <v>716438.4181971482</v>
+        <v>785420.0197064446</v>
       </c>
       <c r="AE2" t="n">
-        <v>980262.6508096375</v>
+        <v>1074646.321248133</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046758517900674e-06</v>
+        <v>2.950738919756432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>886707.7592236362</v>
+        <v>972083.5846237954</v>
       </c>
     </row>
     <row r="3">
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.4214411261251</v>
+        <v>295.4175983944024</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.374151796642</v>
+        <v>404.2033910278474</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.41212748494</v>
+        <v>365.6267866911712</v>
       </c>
       <c r="AD3" t="n">
-        <v>252421.4411261251</v>
+        <v>295417.5983944024</v>
       </c>
       <c r="AE3" t="n">
-        <v>345374.1517966421</v>
+        <v>404203.3910278474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.807729442318282e-06</v>
+        <v>5.489468035963124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.98125</v>
       </c>
       <c r="AH3" t="n">
-        <v>312412.12748494</v>
+        <v>365626.7866911712</v>
       </c>
     </row>
     <row r="4">
@@ -2514,28 +2514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.9028365742825</v>
+        <v>224.3509669016444</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.8334389226798</v>
+        <v>306.9668905808045</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.0353001904969</v>
+        <v>277.6704013746001</v>
       </c>
       <c r="AD4" t="n">
-        <v>189902.8365742825</v>
+        <v>224350.9669016444</v>
       </c>
       <c r="AE4" t="n">
-        <v>259833.4389226798</v>
+        <v>306966.8905808046</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.464792903802576e-06</v>
+        <v>6.436733046268395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.806250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>235035.3001904969</v>
+        <v>277670.4013746001</v>
       </c>
     </row>
     <row r="5">
@@ -2620,28 +2620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.9231336657783</v>
+        <v>204.9085779068001</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.8105250129661</v>
+        <v>280.3649562204055</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.4461520995295</v>
+        <v>253.6073182934998</v>
       </c>
       <c r="AD5" t="n">
-        <v>178923.1336657783</v>
+        <v>204908.5779068001</v>
       </c>
       <c r="AE5" t="n">
-        <v>244810.5250129661</v>
+        <v>280364.9562204055</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.613740904285582e-06</v>
+        <v>6.651466078133778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.587499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>221446.1520995295</v>
+        <v>253607.3182934998</v>
       </c>
     </row>
     <row r="6">
@@ -2726,28 +2726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.5928805692793</v>
+        <v>204.578324810301</v>
       </c>
       <c r="AB6" t="n">
-        <v>244.358658156598</v>
+        <v>279.9130893640374</v>
       </c>
       <c r="AC6" t="n">
-        <v>221.037410781734</v>
+        <v>253.1985769757042</v>
       </c>
       <c r="AD6" t="n">
-        <v>178592.8805692793</v>
+        <v>204578.324810301</v>
       </c>
       <c r="AE6" t="n">
-        <v>244358.658156598</v>
+        <v>279913.0893640374</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.628621115891133e-06</v>
+        <v>6.672918349681544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.566666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>221037.410781734</v>
+        <v>253198.5769757042</v>
       </c>
     </row>
   </sheetData>
@@ -3023,28 +3023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.3311752575183</v>
+        <v>490.8357165875366</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.4805400277688</v>
+        <v>671.5830815786114</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.9806428742664</v>
+        <v>607.4881348455229</v>
       </c>
       <c r="AD2" t="n">
-        <v>440331.1752575184</v>
+        <v>490835.7165875366</v>
       </c>
       <c r="AE2" t="n">
-        <v>602480.5400277688</v>
+        <v>671583.0815786114</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.711647893019421e-06</v>
+        <v>3.969750506026162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>544980.6428742665</v>
+        <v>607488.1348455229</v>
       </c>
     </row>
     <row r="3">
@@ -3129,28 +3129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.7426196919861</v>
+        <v>224.9949798655459</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.296664284909</v>
+        <v>307.8480575298609</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.2136142199147</v>
+        <v>278.4674709867645</v>
       </c>
       <c r="AD3" t="n">
-        <v>199742.6196919861</v>
+        <v>224994.9798655459</v>
       </c>
       <c r="AE3" t="n">
-        <v>273296.664284909</v>
+        <v>307848.0575298609</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.365680668369647e-06</v>
+        <v>6.391192266157881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.202083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>247213.6142199147</v>
+        <v>278467.4709867645</v>
       </c>
     </row>
     <row r="4">
@@ -3235,28 +3235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.1113773811831</v>
+        <v>203.6957307466231</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.7538913171381</v>
+        <v>278.7054852288119</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.5401866020358</v>
+        <v>252.1062248842611</v>
       </c>
       <c r="AD4" t="n">
-        <v>170111.3773811831</v>
+        <v>203695.7307466231</v>
       </c>
       <c r="AE4" t="n">
-        <v>232753.8913171381</v>
+        <v>278705.4852288119</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.684413991502829e-06</v>
+        <v>6.857805860811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.712499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>210540.1866020358</v>
+        <v>252106.2248842611</v>
       </c>
     </row>
     <row r="5">
@@ -3341,28 +3341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.0815606307395</v>
+        <v>203.6659139961795</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.713094723759</v>
+        <v>278.6646886354329</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.5032835782704</v>
+        <v>252.0693218604958</v>
       </c>
       <c r="AD5" t="n">
-        <v>170081.5606307395</v>
+        <v>203665.9139961795</v>
       </c>
       <c r="AE5" t="n">
-        <v>232713.094723759</v>
+        <v>278664.6886354329</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.697845462032589e-06</v>
+        <v>6.877469028388712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.691666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>210503.2835782704</v>
+        <v>252069.3218604958</v>
       </c>
     </row>
   </sheetData>
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.5336313015773</v>
+        <v>194.6027862385363</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.7539289413496</v>
+        <v>266.264117400454</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.3991680038632</v>
+        <v>240.8522437398684</v>
       </c>
       <c r="AD2" t="n">
-        <v>163533.6313015773</v>
+        <v>194602.7862385363</v>
       </c>
       <c r="AE2" t="n">
-        <v>223753.9289413496</v>
+        <v>266264.117400454</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.584679124100131e-06</v>
+        <v>7.093064505291877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.652083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>202399.1680038632</v>
+        <v>240852.2437398684</v>
       </c>
     </row>
     <row r="3">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.4187364681894</v>
+        <v>194.4878914051484</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.596724761506</v>
+        <v>266.1069132206104</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.2569671703063</v>
+        <v>240.7100429063116</v>
       </c>
       <c r="AD3" t="n">
-        <v>163418.7364681894</v>
+        <v>194487.8914051484</v>
       </c>
       <c r="AE3" t="n">
-        <v>223596.724761506</v>
+        <v>266106.9132206104</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.605560674564352e-06</v>
+        <v>7.125370841330671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.616666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>202256.9671703063</v>
+        <v>240710.0429063116</v>
       </c>
     </row>
   </sheetData>
@@ -4041,28 +4041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.9666029178853</v>
+        <v>249.9672136188426</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.2315221199693</v>
+        <v>342.0161694483037</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.7687242194976</v>
+        <v>309.3746262589682</v>
       </c>
       <c r="AD2" t="n">
-        <v>217966.6029178853</v>
+        <v>249967.2136188426</v>
       </c>
       <c r="AE2" t="n">
-        <v>298231.5221199692</v>
+        <v>342016.1694483037</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023214083423189e-06</v>
+        <v>6.080259178018032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>269768.7242194976</v>
+        <v>309374.6262589683</v>
       </c>
     </row>
     <row r="3">
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.4211364971136</v>
+        <v>190.485622540898</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.7047409376189</v>
+        <v>260.6308323929051</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.9729200482093</v>
+        <v>235.7565915470729</v>
       </c>
       <c r="AD3" t="n">
-        <v>166421.1364971136</v>
+        <v>190485.622540898</v>
       </c>
       <c r="AE3" t="n">
-        <v>227704.7409376189</v>
+        <v>260630.8323929051</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716921681357768e-06</v>
+        <v>7.128655286637166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.114583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>205972.9200482093</v>
+        <v>235756.5915470729</v>
       </c>
     </row>
     <row r="4">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.5649006337789</v>
+        <v>190.6293866775634</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.9014453718305</v>
+        <v>260.8275368271167</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.1508512872961</v>
+        <v>235.9345227861598</v>
       </c>
       <c r="AD4" t="n">
-        <v>166564.9006337789</v>
+        <v>190629.3866775634</v>
       </c>
       <c r="AE4" t="n">
-        <v>227901.4453718305</v>
+        <v>260827.5368271167</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.728359962698538e-06</v>
+        <v>7.145941892236784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.097916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>206150.8512872962</v>
+        <v>235934.5227861598</v>
       </c>
     </row>
   </sheetData>
@@ -4550,28 +4550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.7586018882718</v>
+        <v>201.9085970908154</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.0076965581522</v>
+        <v>276.2602501181645</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.5788918340837</v>
+        <v>249.8943595806642</v>
       </c>
       <c r="AD2" t="n">
-        <v>171758.6018882717</v>
+        <v>201908.5970908154</v>
       </c>
       <c r="AE2" t="n">
-        <v>235007.6965581522</v>
+        <v>276260.2501181645</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.375751913370169e-06</v>
+        <v>6.915823347799906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.327083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>212578.8918340837</v>
+        <v>249894.3595806642</v>
       </c>
     </row>
     <row r="3">
@@ -4656,28 +4656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4268552471874</v>
+        <v>202.576850449731</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.9220302850775</v>
+        <v>277.17458384509</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.4059628333871</v>
+        <v>250.7214305799676</v>
       </c>
       <c r="AD3" t="n">
-        <v>172426.8552471874</v>
+        <v>202576.850449731</v>
       </c>
       <c r="AE3" t="n">
-        <v>235922.0302850775</v>
+        <v>277174.5838450899</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.38397207964094e-06</v>
+        <v>6.928815221869476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>213405.9628333871</v>
+        <v>250721.4305799676</v>
       </c>
     </row>
   </sheetData>
@@ -4953,28 +4953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.9147178206538</v>
+        <v>547.674562389275</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.9006392523692</v>
+        <v>749.3524979574528</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.0118764886628</v>
+        <v>677.8353472752291</v>
       </c>
       <c r="AD2" t="n">
-        <v>496914.7178206538</v>
+        <v>547674.5623892751</v>
       </c>
       <c r="AE2" t="n">
-        <v>679900.6392523692</v>
+        <v>749352.4979574528</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.538178296759255e-06</v>
+        <v>3.700375337650401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>615011.8764886628</v>
+        <v>677835.3472752291</v>
       </c>
     </row>
     <row r="3">
@@ -5059,28 +5059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.2369496327282</v>
+        <v>245.9630880418969</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.3919577207583</v>
+        <v>336.5375481843761</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.677356843647</v>
+        <v>304.4188769191748</v>
       </c>
       <c r="AD3" t="n">
-        <v>212236.9496327282</v>
+        <v>245963.0880418969</v>
       </c>
       <c r="AE3" t="n">
-        <v>290391.9577207583</v>
+        <v>336537.5481843761</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.218930621252833e-06</v>
+        <v>6.150721106580647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.385416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>262677.356843647</v>
+        <v>304418.8769191748</v>
       </c>
     </row>
     <row r="4">
@@ -5165,28 +5165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.4223938511072</v>
+        <v>206.2337836062965</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.9159260061378</v>
+        <v>282.1781611224049</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.400441138262</v>
+        <v>255.247473464502</v>
       </c>
       <c r="AD4" t="n">
-        <v>172422.3938511072</v>
+        <v>206233.7836062965</v>
       </c>
       <c r="AE4" t="n">
-        <v>235915.9260061378</v>
+        <v>282178.1611224049</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.662225681743932e-06</v>
+        <v>6.796994897211476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.683333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>213400.441138262</v>
+        <v>255247.473464502</v>
       </c>
     </row>
     <row r="5">
@@ -5271,28 +5271,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.3892184918913</v>
+        <v>206.2006082470806</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.8705340160651</v>
+        <v>282.1327691323322</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.3593812960137</v>
+        <v>255.2064136222538</v>
       </c>
       <c r="AD5" t="n">
-        <v>172389.2184918913</v>
+        <v>206200.6082470806</v>
       </c>
       <c r="AE5" t="n">
-        <v>235870.5340160651</v>
+        <v>282132.7691323322</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.67583561781164e-06</v>
+        <v>6.81683663639751e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.664583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>213359.3812960137</v>
+        <v>255206.4136222537</v>
       </c>
     </row>
   </sheetData>
@@ -5568,28 +5568,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4934793727068</v>
+        <v>211.5849484233537</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.7496765866337</v>
+        <v>289.4998609018293</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.9637425405501</v>
+        <v>261.8704004930506</v>
       </c>
       <c r="AD2" t="n">
-        <v>174493.4793727068</v>
+        <v>211584.9484233537</v>
       </c>
       <c r="AE2" t="n">
-        <v>238749.6765866337</v>
+        <v>289499.8609018293</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.17307179273713e-06</v>
+        <v>6.686241256839007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.935416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215963.7425405501</v>
+        <v>261870.4004930506</v>
       </c>
     </row>
   </sheetData>
@@ -5865,28 +5865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.430824159779</v>
+        <v>350.5968882696437</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.3769047399247</v>
+        <v>479.7021297736146</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.9704071647633</v>
+        <v>433.9200317741877</v>
       </c>
       <c r="AD2" t="n">
-        <v>309430.8241597791</v>
+        <v>350596.8882696436</v>
       </c>
       <c r="AE2" t="n">
-        <v>423376.9047399247</v>
+        <v>479702.1297736146</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299023388104575e-06</v>
+        <v>4.898532434998101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.81875</v>
       </c>
       <c r="AH2" t="n">
-        <v>382970.4071647633</v>
+        <v>433920.0317741877</v>
       </c>
     </row>
     <row r="3">
@@ -5971,28 +5971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.0147232687223</v>
+        <v>196.8622337020419</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.4121801950766</v>
+        <v>269.3555930998077</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.9945966817961</v>
+        <v>243.6486733373902</v>
       </c>
       <c r="AD3" t="n">
-        <v>164014.7232687223</v>
+        <v>196862.2337020418</v>
       </c>
       <c r="AE3" t="n">
-        <v>224412.1801950766</v>
+        <v>269355.5930998077</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712424085558059e-06</v>
+        <v>6.997210845429959e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>202994.5966817961</v>
+        <v>243648.6733373902</v>
       </c>
     </row>
     <row r="4">
@@ -6077,28 +6077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.8745249050591</v>
+        <v>196.7220353383787</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.2203546087975</v>
+        <v>269.1637675135286</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.8210786602425</v>
+        <v>243.4751553158366</v>
       </c>
       <c r="AD4" t="n">
-        <v>163874.5249050591</v>
+        <v>196722.0353383787</v>
       </c>
       <c r="AE4" t="n">
-        <v>224220.3546087975</v>
+        <v>269163.7675135286</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.726262662243798e-06</v>
+        <v>7.017758961879732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>202821.0786602425</v>
+        <v>243475.1553158366</v>
       </c>
     </row>
   </sheetData>
@@ -6374,28 +6374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.6085021228948</v>
+        <v>438.6741979982035</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.7112968016827</v>
+        <v>600.2133906408965</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.9655168964213</v>
+        <v>542.9298670429132</v>
       </c>
       <c r="AD2" t="n">
-        <v>388608.5021228948</v>
+        <v>438674.1979982035</v>
       </c>
       <c r="AE2" t="n">
-        <v>531711.2968016827</v>
+        <v>600213.3906408965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.899198712231854e-06</v>
+        <v>4.263104941939656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>480965.5168964213</v>
+        <v>542929.8670429132</v>
       </c>
     </row>
     <row r="3">
@@ -6480,28 +6480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.6914695261941</v>
+        <v>212.7670773996849</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.807748968858</v>
+        <v>291.1173019190945</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.2983778392845</v>
+        <v>263.3334752097213</v>
       </c>
       <c r="AD3" t="n">
-        <v>187691.4695261942</v>
+        <v>212767.0773996849</v>
       </c>
       <c r="AE3" t="n">
-        <v>256807.748968858</v>
+        <v>291117.3019190945</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.517143553214632e-06</v>
+        <v>6.642199765029469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.027083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>232298.3778392845</v>
+        <v>263333.4752097213</v>
       </c>
     </row>
     <row r="4">
@@ -6586,28 +6586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.4285378915354</v>
+        <v>200.7772215235501</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.0831119688791</v>
+        <v>274.7122521542656</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.2197412828023</v>
+        <v>248.4941003698105</v>
       </c>
       <c r="AD4" t="n">
-        <v>167428.5378915354</v>
+        <v>200777.2215235501</v>
       </c>
       <c r="AE4" t="n">
-        <v>229083.1119688791</v>
+        <v>274712.2521542656</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.712302436576115e-06</v>
+        <v>6.929169677306122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.735416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>207219.7412828022</v>
+        <v>248494.1003698105</v>
       </c>
     </row>
   </sheetData>
@@ -6883,28 +6883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.1429997276315</v>
+        <v>697.6282796851216</v>
       </c>
       <c r="AB2" t="n">
-        <v>860.8212080575861</v>
+        <v>954.5257894527391</v>
       </c>
       <c r="AC2" t="n">
-        <v>778.6656401307226</v>
+        <v>863.4271877927284</v>
       </c>
       <c r="AD2" t="n">
-        <v>629142.9997276315</v>
+        <v>697628.2796851216</v>
       </c>
       <c r="AE2" t="n">
-        <v>860821.2080575861</v>
+        <v>954525.7894527391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203847834550874e-06</v>
+        <v>3.188466455902377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>778665.6401307227</v>
+        <v>863427.1877927284</v>
       </c>
     </row>
     <row r="3">
@@ -6989,28 +6989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.4248155608615</v>
+        <v>272.7527963941812</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.2233512107181</v>
+        <v>373.1924090306499</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.0890524286131</v>
+        <v>337.5754492915996</v>
       </c>
       <c r="AD3" t="n">
-        <v>238424.8155608615</v>
+        <v>272752.7963941812</v>
       </c>
       <c r="AE3" t="n">
-        <v>326223.3512107181</v>
+        <v>373192.4090306499</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.939633504734268e-06</v>
+        <v>5.699753440987561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.777083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>295089.0524286131</v>
+        <v>337575.4492915996</v>
       </c>
     </row>
     <row r="4">
@@ -7095,28 +7095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.9152522481902</v>
+        <v>215.1578922269348</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.5362295434899</v>
+        <v>294.3885202410423</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.9117192152113</v>
+        <v>266.2924930462072</v>
       </c>
       <c r="AD4" t="n">
-        <v>180915.2522481902</v>
+        <v>215157.8922269348</v>
       </c>
       <c r="AE4" t="n">
-        <v>247536.2295434899</v>
+        <v>294388.5202410423</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.571657124731577e-06</v>
+        <v>6.614147837962835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.702083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>223911.7192152113</v>
+        <v>266292.4930462072</v>
       </c>
     </row>
     <row r="5">
@@ -7201,28 +7201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.2675402324485</v>
+        <v>210.5101802111931</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.1770249209723</v>
+        <v>288.0293156185247</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.159428156665</v>
+        <v>260.540201987661</v>
       </c>
       <c r="AD5" t="n">
-        <v>176267.5402324485</v>
+        <v>210510.1802111931</v>
       </c>
       <c r="AE5" t="n">
-        <v>241177.0249209723</v>
+        <v>288029.3156185247</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.636359403186396e-06</v>
+        <v>6.707757315549879e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.608333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>218159.428156665</v>
+        <v>260540.201987661</v>
       </c>
     </row>
     <row r="6">
@@ -7307,28 +7307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.8115807476267</v>
+        <v>211.0542207263713</v>
       </c>
       <c r="AB6" t="n">
-        <v>241.9214051552123</v>
+        <v>288.7736958527648</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.8327657860936</v>
+        <v>261.2135396170895</v>
       </c>
       <c r="AD6" t="n">
-        <v>176811.5807476267</v>
+        <v>211054.2207263713</v>
       </c>
       <c r="AE6" t="n">
-        <v>241921.4051552123</v>
+        <v>288773.6958527648</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.636359403186396e-06</v>
+        <v>6.707757315549879e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.608333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>218832.7657860936</v>
+        <v>261213.5396170895</v>
       </c>
     </row>
   </sheetData>
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.2300052591158</v>
+        <v>283.6237105705419</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.7980237458743</v>
+        <v>388.0664733976323</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.036247444627</v>
+        <v>351.0299538312776</v>
       </c>
       <c r="AD2" t="n">
-        <v>243230.0052591158</v>
+        <v>283623.7105705419</v>
       </c>
       <c r="AE2" t="n">
-        <v>332798.0237458744</v>
+        <v>388066.4733976322</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.762868037181455e-06</v>
+        <v>5.650641036078763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.808333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>301036.247444627</v>
+        <v>351029.9538312776</v>
       </c>
     </row>
     <row r="3">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.2014374126765</v>
+        <v>192.488954620824</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.1406271916241</v>
+        <v>263.3718797254322</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.1763287369208</v>
+        <v>238.2360371692687</v>
       </c>
       <c r="AD3" t="n">
-        <v>168201.4374126765</v>
+        <v>192488.954620824</v>
       </c>
       <c r="AE3" t="n">
-        <v>230140.6271916241</v>
+        <v>263371.8797254321</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.723431061258808e-06</v>
+        <v>7.093103750146474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.016666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>208176.3287369208</v>
+        <v>238236.0371692686</v>
       </c>
     </row>
     <row r="4">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.1385984642513</v>
+        <v>192.436494542475</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.1086952350445</v>
+        <v>263.3001015318598</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.1972688828599</v>
+        <v>238.1711093857494</v>
       </c>
       <c r="AD4" t="n">
-        <v>160138.5984642513</v>
+        <v>192436.494542475</v>
       </c>
       <c r="AE4" t="n">
-        <v>219108.6952350445</v>
+        <v>263300.1015318598</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.735521619362464e-06</v>
+        <v>7.11125995522583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.997916666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>198197.2688828599</v>
+        <v>238171.1093857494</v>
       </c>
     </row>
   </sheetData>
@@ -8113,28 +8113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.7291916821382</v>
+        <v>200.1619596504595</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.8627238659764</v>
+        <v>273.8704237160653</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8295095181422</v>
+        <v>247.7326148562382</v>
       </c>
       <c r="AD2" t="n">
-        <v>168729.1916821382</v>
+        <v>200161.9596504595</v>
       </c>
       <c r="AE2" t="n">
-        <v>230862.7238659764</v>
+        <v>273870.4237160653</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555841727659424e-06</v>
+        <v>6.98750743821735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.577083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>208829.5095181422</v>
+        <v>247732.6148562382</v>
       </c>
     </row>
     <row r="3">
@@ -8219,28 +8219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.5245611383012</v>
+        <v>194.7867369060303</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7415187438077</v>
+        <v>266.5158068190498</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.3879422181569</v>
+        <v>241.0799122736018</v>
       </c>
       <c r="AD3" t="n">
-        <v>163524.5611383012</v>
+        <v>194786.7369060303</v>
       </c>
       <c r="AE3" t="n">
-        <v>223741.5187438077</v>
+        <v>266515.8068190498</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670682347376722e-06</v>
+        <v>7.163643865348319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.391666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>202387.9422181569</v>
+        <v>241079.9122736018</v>
       </c>
     </row>
   </sheetData>
@@ -14217,28 +14217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.1327142323154</v>
+        <v>201.3033329736286</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.2053765199729</v>
+        <v>275.4321010506618</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.9029686556843</v>
+        <v>249.1452478978491</v>
       </c>
       <c r="AD2" t="n">
-        <v>163132.7142323154</v>
+        <v>201303.3329736287</v>
       </c>
       <c r="AE2" t="n">
-        <v>223205.3765199729</v>
+        <v>275432.1010506618</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.504527472401243e-06</v>
+        <v>7.038235322175917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.929166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201902.9686556843</v>
+        <v>249145.2478978491</v>
       </c>
     </row>
     <row r="3">
@@ -14323,28 +14323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.540556106293</v>
+        <v>194.2135964666582</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7634037646623</v>
+        <v>265.7316107847297</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.4077385633369</v>
+        <v>240.3705588081709</v>
       </c>
       <c r="AD3" t="n">
-        <v>163540.556106293</v>
+        <v>194213.5964666582</v>
       </c>
       <c r="AE3" t="n">
-        <v>223763.4037646623</v>
+        <v>265731.6107847297</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.51447010639292e-06</v>
+        <v>7.053770491665821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.910416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>202407.738563337</v>
+        <v>240370.5588081709</v>
       </c>
     </row>
   </sheetData>
@@ -14620,28 +14620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.651272302379</v>
+        <v>233.0248017521814</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.0669464058292</v>
+        <v>318.8348140858901</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.3875746787666</v>
+        <v>288.4056669170994</v>
       </c>
       <c r="AD2" t="n">
-        <v>196651.272302379</v>
+        <v>233024.8017521814</v>
       </c>
       <c r="AE2" t="n">
-        <v>269066.9464058292</v>
+        <v>318834.8140858901</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.826093307687375e-06</v>
+        <v>6.23529294653501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.01875</v>
       </c>
       <c r="AH2" t="n">
-        <v>243387.5746787666</v>
+        <v>288405.6669170994</v>
       </c>
     </row>
   </sheetData>
@@ -14917,28 +14917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.4244534798057</v>
+        <v>392.8251803298911</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.8344410037586</v>
+        <v>537.4807419512082</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.9442768097356</v>
+        <v>486.1843342983433</v>
       </c>
       <c r="AD2" t="n">
-        <v>351424.4534798057</v>
+        <v>392825.180329891</v>
       </c>
       <c r="AE2" t="n">
-        <v>480834.4410037586</v>
+        <v>537480.7419512082</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.091858452683802e-06</v>
+        <v>4.567852329056275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>434944.2768097356</v>
+        <v>486184.3342983433</v>
       </c>
     </row>
     <row r="3">
@@ -15023,28 +15023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.149388333266</v>
+        <v>202.2528300355787</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.4376554618172</v>
+        <v>276.7312448196752</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.3495704493976</v>
+        <v>250.3204032089081</v>
       </c>
       <c r="AD3" t="n">
-        <v>169149.388333266</v>
+        <v>202252.8300355788</v>
       </c>
       <c r="AE3" t="n">
-        <v>231437.6554618172</v>
+        <v>276731.2448196752</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.651328215695165e-06</v>
+        <v>6.87178302254614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.891666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>209349.5704493976</v>
+        <v>250320.4032089081</v>
       </c>
     </row>
     <row r="4">
@@ -15129,28 +15129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.9705878455559</v>
+        <v>198.0740295478686</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.7200362788687</v>
+        <v>271.0136256367267</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.177632816539</v>
+        <v>245.1484655760495</v>
       </c>
       <c r="AD4" t="n">
-        <v>164970.5878455559</v>
+        <v>198074.0295478686</v>
       </c>
       <c r="AE4" t="n">
-        <v>225720.0362788687</v>
+        <v>271013.6256367267</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727955343665531e-06</v>
+        <v>6.984990470534099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.779166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>204177.632816539</v>
+        <v>245148.4655760495</v>
       </c>
     </row>
     <row r="5">
@@ -15235,28 +15235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.0167458699634</v>
+        <v>198.1201875722761</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.7831917242113</v>
+        <v>271.0767810820694</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.2347607948174</v>
+        <v>245.2055935543278</v>
       </c>
       <c r="AD5" t="n">
-        <v>165016.7458699634</v>
+        <v>198120.1875722761</v>
       </c>
       <c r="AE5" t="n">
-        <v>225783.1917242113</v>
+        <v>271076.7810820694</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.740880401395472e-06</v>
+        <v>7.004085702724839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.7625</v>
       </c>
       <c r="AH5" t="n">
-        <v>204234.7607948174</v>
+        <v>245205.5935543278</v>
       </c>
     </row>
   </sheetData>
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.4307539699365</v>
+        <v>613.6047405227276</v>
       </c>
       <c r="AB2" t="n">
-        <v>769.5425702753411</v>
+        <v>839.5610763138204</v>
       </c>
       <c r="AC2" t="n">
-        <v>696.0985074280427</v>
+        <v>759.4345455217997</v>
       </c>
       <c r="AD2" t="n">
-        <v>562430.7539699365</v>
+        <v>613604.7405227276</v>
       </c>
       <c r="AE2" t="n">
-        <v>769542.570275341</v>
+        <v>839561.0763138204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.36778387982609e-06</v>
+        <v>3.438422385988829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.04583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>696098.5074280427</v>
+        <v>759434.5455217997</v>
       </c>
     </row>
     <row r="3">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.8850293916496</v>
+        <v>259.0009607544789</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.6976184408036</v>
+        <v>354.3765408202387</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.3313895932241</v>
+        <v>320.5553411349533</v>
       </c>
       <c r="AD3" t="n">
-        <v>224885.0293916496</v>
+        <v>259000.9607544789</v>
       </c>
       <c r="AE3" t="n">
-        <v>307697.6184408036</v>
+        <v>354376.5408202388</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.079456314462722e-06</v>
+        <v>5.924060060474084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.572916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>278331.3895932241</v>
+        <v>320555.3411349533</v>
       </c>
     </row>
     <row r="4">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.4494901664407</v>
+        <v>208.4800806746952</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.6894886139536</v>
+        <v>285.2516438710192</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.9092988235082</v>
+        <v>258.0276273332495</v>
       </c>
       <c r="AD4" t="n">
-        <v>174449.4901664408</v>
+        <v>208480.0806746952</v>
       </c>
       <c r="AE4" t="n">
-        <v>238689.4886139536</v>
+        <v>285251.6438710191</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.649124150037389e-06</v>
+        <v>6.751314040495944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.64375</v>
       </c>
       <c r="AH4" t="n">
-        <v>215909.2988235082</v>
+        <v>258027.6273332495</v>
       </c>
     </row>
     <row r="5">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.2856718347478</v>
+        <v>208.3162623430023</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.4653451453767</v>
+        <v>285.0275004024422</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.7065472929849</v>
+        <v>257.8248758027262</v>
       </c>
       <c r="AD5" t="n">
-        <v>174285.6718347478</v>
+        <v>208316.2623430023</v>
       </c>
       <c r="AE5" t="n">
-        <v>238465.3451453767</v>
+        <v>285027.5004024422</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.661134325644247e-06</v>
+        <v>6.768754845384484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.627083333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>215706.5472929849</v>
+        <v>257824.8758027263</v>
       </c>
     </row>
   </sheetData>
@@ -16147,28 +16147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.1942350434612</v>
+        <v>270.8029675190101</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.2254196054597</v>
+        <v>370.5245671432619</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.4270637695357</v>
+        <v>335.1622224896042</v>
       </c>
       <c r="AD2" t="n">
-        <v>228194.2350434613</v>
+        <v>270802.9675190101</v>
       </c>
       <c r="AE2" t="n">
-        <v>312225.4196054597</v>
+        <v>370524.5671432619</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.220031117201835e-06</v>
+        <v>5.367600026006933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.32708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>282427.0637695357</v>
+        <v>335162.2224896043</v>
       </c>
     </row>
   </sheetData>
@@ -16444,28 +16444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5659431865214</v>
+        <v>218.3361070897844</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.2677541762009</v>
+        <v>298.737094029335</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.9053579882418</v>
+        <v>270.2260450554082</v>
       </c>
       <c r="AD2" t="n">
-        <v>186565.9431865214</v>
+        <v>218336.1070897844</v>
       </c>
       <c r="AE2" t="n">
-        <v>255267.7541762009</v>
+        <v>298737.094029335</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.309480261597286e-06</v>
+        <v>6.558626546304487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.89375</v>
       </c>
       <c r="AH2" t="n">
-        <v>230905.3579882418</v>
+        <v>270226.0450554082</v>
       </c>
     </row>
     <row r="3">
@@ -16550,28 +16550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.0037988364074</v>
+        <v>188.8315112724058</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.7654770217172</v>
+        <v>258.3676043811162</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.2187367586666</v>
+        <v>233.709362840268</v>
       </c>
       <c r="AD3" t="n">
-        <v>165003.7988364074</v>
+        <v>188831.5112724058</v>
       </c>
       <c r="AE3" t="n">
-        <v>225765.4770217172</v>
+        <v>258367.6043811162</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.695847457464629e-06</v>
+        <v>7.146641340111096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.245833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>204218.7367586666</v>
+        <v>233709.362840268</v>
       </c>
     </row>
     <row r="4">
@@ -16656,28 +16656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.2566482803228</v>
+        <v>189.0843607163212</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.1114367858122</v>
+        <v>258.7135641452112</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.531678608434</v>
+        <v>234.0223046900355</v>
       </c>
       <c r="AD4" t="n">
-        <v>165256.6482803228</v>
+        <v>189084.3607163212</v>
       </c>
       <c r="AE4" t="n">
-        <v>226111.4367858122</v>
+        <v>258713.5641452112</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.706788540356899e-06</v>
+        <v>7.16329264661365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.229166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>204531.678608434</v>
+        <v>234022.3046900355</v>
       </c>
     </row>
   </sheetData>
@@ -16953,28 +16953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.9939887455942</v>
+        <v>319.6545023101579</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.7318837478271</v>
+        <v>437.3653922221205</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.2999285269974</v>
+        <v>395.6238530346238</v>
       </c>
       <c r="AD2" t="n">
-        <v>278993.9887455942</v>
+        <v>319654.5023101579</v>
       </c>
       <c r="AE2" t="n">
-        <v>381731.883747827</v>
+        <v>437365.3922221205</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.523202402546935e-06</v>
+        <v>5.25982654396404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.297916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>345299.9285269974</v>
+        <v>395623.8530346238</v>
       </c>
     </row>
     <row r="3">
@@ -17059,28 +17059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.7052559706232</v>
+        <v>194.2847997281759</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.2522651513126</v>
+        <v>265.8290342284043</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.1362594948394</v>
+        <v>240.4586842951159</v>
       </c>
       <c r="AD3" t="n">
-        <v>161705.2559706232</v>
+        <v>194284.7997281759</v>
       </c>
       <c r="AE3" t="n">
-        <v>221252.2651513126</v>
+        <v>265829.0342284043</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725484020302141e-06</v>
+        <v>7.054725628336079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.931250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>200136.2594948394</v>
+        <v>240458.6842951159</v>
       </c>
     </row>
     <row r="4">
@@ -17165,28 +17165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.7279367349803</v>
+        <v>194.307480492533</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.2832979737107</v>
+        <v>265.8600670508025</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.1643305882227</v>
+        <v>240.4867553884992</v>
       </c>
       <c r="AD4" t="n">
-        <v>161727.9367349804</v>
+        <v>194307.480492533</v>
       </c>
       <c r="AE4" t="n">
-        <v>221283.2979737108</v>
+        <v>265860.0670508025</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.738219055092016e-06</v>
+        <v>7.073737897962618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.912500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>200164.3305882227</v>
+        <v>240486.7553884992</v>
       </c>
     </row>
   </sheetData>
